--- a/INTLINE/data/132/EPSE/SBF 120 Index - Daily.xlsx
+++ b/INTLINE/data/132/EPSE/SBF 120 Index - Daily.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:LAY2"/>
+  <dimension ref="A1:LBQ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41169,15 +41169,105 @@
       </c>
       <c r="LAW1" s="1" t="inlineStr">
         <is>
+          <t>2022-04-06</t>
+        </is>
+      </c>
+      <c r="LAX1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-07</t>
+        </is>
+      </c>
+      <c r="LAY1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-08</t>
+        </is>
+      </c>
+      <c r="LAZ1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-11</t>
+        </is>
+      </c>
+      <c r="LBA1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-12</t>
+        </is>
+      </c>
+      <c r="LBB1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-13</t>
+        </is>
+      </c>
+      <c r="LBC1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-14</t>
+        </is>
+      </c>
+      <c r="LBD1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-19</t>
+        </is>
+      </c>
+      <c r="LBE1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-20</t>
+        </is>
+      </c>
+      <c r="LBF1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-21</t>
+        </is>
+      </c>
+      <c r="LBG1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-22</t>
+        </is>
+      </c>
+      <c r="LBH1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-25</t>
+        </is>
+      </c>
+      <c r="LBI1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-26</t>
+        </is>
+      </c>
+      <c r="LBJ1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-27</t>
+        </is>
+      </c>
+      <c r="LBK1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-28</t>
+        </is>
+      </c>
+      <c r="LBL1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-29</t>
+        </is>
+      </c>
+      <c r="LBM1" s="1" t="inlineStr">
+        <is>
+          <t>2022-05-02</t>
+        </is>
+      </c>
+      <c r="LBN1" s="1" t="inlineStr">
+        <is>
+          <t>2022-05-03</t>
+        </is>
+      </c>
+      <c r="LBO1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="LAX1" s="1" t="inlineStr">
+      <c r="LBP1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="LAY1" s="1" t="inlineStr">
+      <c r="LBQ1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -65254,17 +65344,71 @@
       <c r="LAV2" t="n">
         <v>5146.88</v>
       </c>
-      <c r="LAW2" t="inlineStr">
+      <c r="LAW2" t="n">
+        <v>5035.09</v>
+      </c>
+      <c r="LAX2" t="n">
+        <v>5009.39</v>
+      </c>
+      <c r="LAY2" t="n">
+        <v>5075.47</v>
+      </c>
+      <c r="LAZ2" t="n">
+        <v>5082.87</v>
+      </c>
+      <c r="LBA2" t="n">
+        <v>5069.2</v>
+      </c>
+      <c r="LBB2" t="n">
+        <v>5072.67</v>
+      </c>
+      <c r="LBC2" t="n">
+        <v>5110.74</v>
+      </c>
+      <c r="LBD2" t="n">
+        <v>5071.68</v>
+      </c>
+      <c r="LBE2" t="n">
+        <v>5138.47</v>
+      </c>
+      <c r="LBF2" t="n">
+        <v>5208.78</v>
+      </c>
+      <c r="LBG2" t="n">
+        <v>5108.43</v>
+      </c>
+      <c r="LBH2" t="n">
+        <v>5013.68</v>
+      </c>
+      <c r="LBI2" t="n">
+        <v>4983.23</v>
+      </c>
+      <c r="LBJ2" t="n">
+        <v>5002.84</v>
+      </c>
+      <c r="LBK2" t="n">
+        <v>5051.27</v>
+      </c>
+      <c r="LBL2" t="n">
+        <v>5070.88</v>
+      </c>
+      <c r="LBM2" t="n">
+        <v>4987.05</v>
+      </c>
+      <c r="LBN2" t="n">
+        <v>5028.44</v>
+      </c>
+      <c r="LBO2" t="inlineStr">
         <is>
           <t>SBF120</t>
         </is>
       </c>
-      <c r="LAX2" t="inlineStr">
+      <c r="LBP2" t="inlineStr">
         <is>
           <t>SBF 120 Index, Close Price</t>
         </is>
       </c>
-      <c r="LAY2" t="inlineStr">
+      <c r="LBQ2" t="inlineStr">
         <is>
           <t>Index: 1990.12.28=1000</t>
         </is>

--- a/INTLINE/data/132/EPSE/SBF 120 Index - Daily.xlsx
+++ b/INTLINE/data/132/EPSE/SBF 120 Index - Daily.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:LCZ2"/>
+  <dimension ref="A1:LDD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41434,15 +41434,35 @@
       </c>
       <c r="LCX1" s="1" t="inlineStr">
         <is>
+          <t>2022-06-22</t>
+        </is>
+      </c>
+      <c r="LCY1" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="LCZ1" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-24</t>
+        </is>
+      </c>
+      <c r="LDA1" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-27</t>
+        </is>
+      </c>
+      <c r="LDB1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="LCY1" s="1" t="inlineStr">
+      <c r="LDC1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="LCZ1" s="1" t="inlineStr">
+      <c r="LDD1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -65678,17 +65698,29 @@
       <c r="LCW2" t="n">
         <v>4630.18</v>
       </c>
-      <c r="LCX2" t="inlineStr">
+      <c r="LCX2" t="n">
+        <v>4591.67</v>
+      </c>
+      <c r="LCY2" t="n">
+        <v>4560.03</v>
+      </c>
+      <c r="LCZ2" t="n">
+        <v>4700.76</v>
+      </c>
+      <c r="LDA2" t="n">
+        <v>4684.91</v>
+      </c>
+      <c r="LDB2" t="inlineStr">
         <is>
           <t>SBF120</t>
         </is>
       </c>
-      <c r="LCY2" t="inlineStr">
+      <c r="LDC2" t="inlineStr">
         <is>
           <t>SBF 120 Index, Close Price</t>
         </is>
       </c>
-      <c r="LCZ2" t="inlineStr">
+      <c r="LDD2" t="inlineStr">
         <is>
           <t>Index: 1990.12.28=1000</t>
         </is>
